--- a/final_data_pipeline/output/process_temps_added.xlsx
+++ b/final_data_pipeline/output/process_temps_added.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="77">
   <si>
     <t>unit_type</t>
   </si>
@@ -106,52 +106,124 @@
     <t>Utility electrifiable</t>
   </si>
   <si>
-    <t>Chemical Recovery Furnace</t>
-  </si>
-  <si>
-    <t>S (Stoker Boiler)</t>
+    <t>BFB (Boiler, bubbling fluidized bed)</t>
+  </si>
+  <si>
+    <t>Chemical Recovery Combustion Unit</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>OCS (Other combustion source)</t>
   </si>
   <si>
     <t>OB (Boiler, other)</t>
   </si>
   <si>
-    <t>RB1</t>
-  </si>
-  <si>
-    <t>WFB1</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>WFB2</t>
+    <t>PRH (Process Heater)</t>
+  </si>
+  <si>
+    <t>No 6 Power Boiler</t>
+  </si>
+  <si>
+    <t>Recovery Boiler</t>
+  </si>
+  <si>
+    <t>GP-Power Boilers</t>
+  </si>
+  <si>
+    <t>GP- Mill Emissions</t>
+  </si>
+  <si>
+    <t>CP-1</t>
+  </si>
+  <si>
+    <t>CP-2</t>
+  </si>
+  <si>
+    <t>PD Boiler</t>
+  </si>
+  <si>
+    <t>CP-Buckeye</t>
+  </si>
+  <si>
+    <t>CP-GPAR030</t>
+  </si>
+  <si>
+    <t>Natural Gas Boiler #635-93A</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>AA</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Wood and Wood Residuals (dry basis)</t>
+  </si>
+  <si>
+    <t>Agricultural Byproducts</t>
+  </si>
+  <si>
+    <t>Natural Gas (Weighted U.S. Average)</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
+    <t>Residual Fuel Oil No. 6</t>
+  </si>
+  <si>
+    <t>Distillate Fuel Oil No. 2</t>
   </si>
   <si>
     <t>North American Hardwood</t>
   </si>
   <si>
-    <t>Natural Gas (Weighted U.S. Average)</t>
-  </si>
-  <si>
-    <t>Wood and Wood Residuals (dry basis)</t>
-  </si>
-  <si>
-    <t>WestRock CP, LLC - Stevenson Mill</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Paperboard Mills</t>
-  </si>
-  <si>
-    <t>sulfite</t>
+    <t>RAYONIER PERFORMANCE FIBERS LLC Fernandina Mill</t>
+  </si>
+  <si>
+    <t>GREIF RIVERVILLE LLC</t>
+  </si>
+  <si>
+    <t>ND Fairmont LLC</t>
+  </si>
+  <si>
+    <t>ADM SOUTHERN CELLULOSE PROD.IN</t>
+  </si>
+  <si>
+    <t>MEMPHIS CELLULOSE LLC</t>
+  </si>
+  <si>
+    <t>GEORGIA-PACIFIC Crossett LLC</t>
+  </si>
+  <si>
+    <t>FIBREK</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Pulp Mills</t>
+  </si>
+  <si>
+    <t>finishing</t>
   </si>
   <si>
     <t>generic</t>
@@ -160,22 +232,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Evaporator</t>
-  </si>
-  <si>
     <t>Recycled pulping</t>
   </si>
   <si>
+    <t>Drying</t>
+  </si>
+  <si>
     <t>Stock preparation</t>
-  </si>
-  <si>
-    <t>Drying</t>
-  </si>
-  <si>
-    <t>Digester</t>
-  </si>
-  <si>
-    <t>Bleaching</t>
   </si>
   <si>
     <t>PD (Product or intermediate product dryer),O (Oven)</t>
@@ -539,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,55 +708,55 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H2">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I2">
         <v>2023</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>97724.045</v>
+        <v>267324</v>
       </c>
       <c r="R2">
-        <v>93.86450000000001</v>
+        <v>94.95559999999999</v>
       </c>
       <c r="S2">
-        <v>1041118.260897357</v>
+        <v>2815252.60226885</v>
       </c>
       <c r="T2">
         <v>0.8</v>
@@ -702,28 +765,28 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>832894.6087178858</v>
+        <v>2252202.08181508</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AA2">
-        <v>146800.6969464761</v>
+        <v>247893.4935264719</v>
       </c>
       <c r="AB2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -731,58 +794,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H3">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I3">
         <v>2023</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5317.2</v>
+        <v>177.1</v>
       </c>
       <c r="R3">
-        <v>53.1145</v>
+        <v>120.179</v>
       </c>
       <c r="S3">
-        <v>100108.2566907342</v>
+        <v>1473.635160885013</v>
       </c>
       <c r="T3">
         <v>0.8</v>
@@ -791,28 +854,28 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>80086.60535258734</v>
+        <v>1178.908128708011</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AA3">
-        <v>14115.55478781998</v>
+        <v>129.7590731008743</v>
       </c>
       <c r="AB3">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -820,58 +883,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H4">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I4">
         <v>2023</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>48267.395</v>
+        <v>83108.82000000001</v>
       </c>
       <c r="R4">
         <v>53.1145</v>
       </c>
       <c r="S4">
-        <v>908742.3396624275</v>
+        <v>1564710.578090728</v>
       </c>
       <c r="T4">
         <v>0.8</v>
@@ -880,28 +943,22 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>726993.871729942</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>47</v>
+        <v>1251768.462472583</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AA4">
-        <v>50500.14470738253</v>
+        <v>137778.6033296398</v>
       </c>
       <c r="AB4">
         <v>45</v>
       </c>
       <c r="AD4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -909,58 +966,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H5">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I5">
         <v>2023</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>21053.6</v>
+        <v>83108.82000000001</v>
       </c>
       <c r="R5">
         <v>53.1145</v>
       </c>
       <c r="S5">
-        <v>396381.4024418945</v>
+        <v>1564710.578090728</v>
       </c>
       <c r="T5">
         <v>0.8</v>
@@ -969,28 +1026,25 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>317105.1219535156</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>47</v>
+        <v>1251768.462472583</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA5">
-        <v>22027.4959237255</v>
+        <v>772366.3023391073</v>
       </c>
       <c r="AB5">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>75</v>
       </c>
       <c r="AD5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -998,58 +1052,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H6">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I6">
         <v>2023</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>344226.7</v>
+        <v>177.1</v>
       </c>
       <c r="R6">
-        <v>94.95559999999999</v>
+        <v>120.179</v>
       </c>
       <c r="S6">
-        <v>3625133.220157632</v>
+        <v>1473.635160885013</v>
       </c>
       <c r="T6">
         <v>0.8</v>
@@ -1058,28 +1112,31 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2900106.576126106</v>
+        <v>1178.908128708011</v>
       </c>
       <c r="W6" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA6">
-        <v>201453.9701864286</v>
+        <v>727.4100118876145</v>
       </c>
       <c r="AB6">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>75</v>
       </c>
       <c r="AD6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1087,58 +1144,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H7">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I7">
         <v>2023</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6686.299999999999</v>
+        <v>267324</v>
       </c>
       <c r="R7">
-        <v>53.1145</v>
+        <v>94.95559999999999</v>
       </c>
       <c r="S7">
-        <v>125884.6454358038</v>
+        <v>2815252.60226885</v>
       </c>
       <c r="T7">
         <v>0.8</v>
@@ -1147,28 +1204,31 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>100707.716348643</v>
+        <v>2252202.08181508</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA7">
-        <v>6995.594387411454</v>
+        <v>1389653.954546768</v>
       </c>
       <c r="AB7">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>75</v>
       </c>
       <c r="AD7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1176,58 +1236,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H8">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I8">
         <v>2023</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>148574.1</v>
+        <v>1981.6</v>
       </c>
       <c r="R8">
-        <v>94.95559999999999</v>
+        <v>87.979</v>
       </c>
       <c r="S8">
-        <v>1564669.171697088</v>
+        <v>22523.55675786268</v>
       </c>
       <c r="T8">
         <v>0.8</v>
@@ -1236,28 +1296,31 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1251735.33735767</v>
+        <v>18018.84540629014</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA8">
-        <v>86950.96084027023</v>
+        <v>11117.98980091428</v>
       </c>
       <c r="AB8">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>75</v>
       </c>
       <c r="AD8" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1268,55 +1331,55 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H9">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I9">
         <v>2023</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>97724.045</v>
+        <v>1981.6</v>
       </c>
       <c r="R9">
-        <v>93.86450000000001</v>
+        <v>87.979</v>
       </c>
       <c r="S9">
-        <v>1041118.260897357</v>
+        <v>22523.55675786268</v>
       </c>
       <c r="T9">
         <v>0.8</v>
@@ -1325,28 +1388,28 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>832894.6087178858</v>
+        <v>18018.84540629014</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AA9">
-        <v>57856.468811991</v>
+        <v>1983.283193433009</v>
       </c>
       <c r="AB9">
         <v>45</v>
       </c>
       <c r="AD9" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1354,58 +1417,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H10">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I10">
         <v>2023</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5317.2</v>
+        <v>878.0999999999999</v>
       </c>
       <c r="R10">
-        <v>53.1145</v>
+        <v>75.343</v>
       </c>
       <c r="S10">
-        <v>100108.2566907342</v>
+        <v>11654.69917576948</v>
       </c>
       <c r="T10">
         <v>0.8</v>
@@ -1414,28 +1477,31 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>80086.60535258734</v>
+        <v>9323.759340615585</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA10">
-        <v>5563.162657485334</v>
+        <v>5752.946924055215</v>
       </c>
       <c r="AB10">
-        <v>45</v>
+        <v>95</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>75</v>
       </c>
       <c r="AD10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1446,55 +1512,55 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H11">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I11">
         <v>2023</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>48267.395</v>
+        <v>382.1</v>
       </c>
       <c r="R11">
-        <v>53.1145</v>
+        <v>74.203</v>
       </c>
       <c r="S11">
-        <v>908742.3396624275</v>
+        <v>5149.38749107179</v>
       </c>
       <c r="T11">
         <v>0.8</v>
@@ -1503,28 +1569,28 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>726993.871729942</v>
+        <v>4119.509992857432</v>
       </c>
       <c r="W11" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA11">
-        <v>125215.6622082193</v>
+        <v>1124.266745999542</v>
       </c>
       <c r="AB11">
         <v>45</v>
       </c>
       <c r="AD11" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1532,58 +1598,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H12">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I12">
         <v>2023</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21053.6</v>
+        <v>878.0999999999999</v>
       </c>
       <c r="R12">
-        <v>53.1145</v>
+        <v>75.343</v>
       </c>
       <c r="S12">
-        <v>396381.4024418945</v>
+        <v>11654.69917576948</v>
       </c>
       <c r="T12">
         <v>0.8</v>
@@ -1592,28 +1658,28 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>317105.1219535156</v>
+        <v>9323.759340615585</v>
       </c>
       <c r="W12" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA12">
-        <v>54617.41753137841</v>
+        <v>2544.572677947499</v>
       </c>
       <c r="AB12">
         <v>45</v>
       </c>
       <c r="AD12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1621,58 +1687,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H13">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I13">
         <v>2023</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>344226.7</v>
+        <v>1981.6</v>
       </c>
       <c r="R13">
-        <v>94.95559999999999</v>
+        <v>87.979</v>
       </c>
       <c r="S13">
-        <v>3625133.220157632</v>
+        <v>22523.55675786268</v>
       </c>
       <c r="T13">
         <v>0.8</v>
@@ -1681,28 +1747,28 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>2900106.576126106</v>
+        <v>18018.84540629014</v>
       </c>
       <c r="W13" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA13">
-        <v>499507.3267122917</v>
+        <v>4917.572411942853</v>
       </c>
       <c r="AB13">
         <v>45</v>
       </c>
       <c r="AD13" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1710,58 +1776,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H14">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I14">
         <v>2023</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6686.299999999999</v>
+        <v>267324</v>
       </c>
       <c r="R14">
-        <v>53.1145</v>
+        <v>94.95559999999999</v>
       </c>
       <c r="S14">
-        <v>125884.6454358038</v>
+        <v>2815252.60226885</v>
       </c>
       <c r="T14">
         <v>0.8</v>
@@ -1770,28 +1836,28 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>100707.716348643</v>
+        <v>2252202.08181508</v>
       </c>
       <c r="W14" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA14">
-        <v>17345.65294486716</v>
+        <v>614654.6337418398</v>
       </c>
       <c r="AB14">
         <v>45</v>
       </c>
       <c r="AD14" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1799,58 +1865,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H15">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I15">
         <v>2023</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>148574.1</v>
+        <v>177.1</v>
       </c>
       <c r="R15">
-        <v>94.95559999999999</v>
+        <v>120.179</v>
       </c>
       <c r="S15">
-        <v>1564669.171697088</v>
+        <v>1473.635160885013</v>
       </c>
       <c r="T15">
         <v>0.8</v>
@@ -1859,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>1251735.33735767</v>
+        <v>1178.908128708011</v>
       </c>
       <c r="W15" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA15">
-        <v>215595.8602562924</v>
+        <v>321.7390437195217</v>
       </c>
       <c r="AB15">
         <v>45</v>
       </c>
       <c r="AD15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1888,58 +1954,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H16">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I16">
         <v>2023</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>97724.045</v>
+        <v>83108.82000000001</v>
       </c>
       <c r="R16">
-        <v>93.86450000000001</v>
+        <v>53.1145</v>
       </c>
       <c r="S16">
-        <v>1041118.260897357</v>
+        <v>1564710.578090728</v>
       </c>
       <c r="T16">
         <v>0.8</v>
@@ -1948,28 +2014,22 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>832894.6087178858</v>
-      </c>
-      <c r="W16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>47</v>
+        <v>1251768.462472583</v>
       </c>
       <c r="Z16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA16">
-        <v>143455.7484399362</v>
+        <v>341623.5568038358</v>
       </c>
       <c r="AB16">
         <v>45</v>
       </c>
       <c r="AD16" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -1980,55 +2040,55 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H17">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I17">
         <v>2023</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5317.2</v>
+        <v>171445.51</v>
       </c>
       <c r="R17">
-        <v>53.1145</v>
+        <v>93.86450000000001</v>
       </c>
       <c r="S17">
-        <v>100108.2566907342</v>
+        <v>1826521.315300246</v>
       </c>
       <c r="T17">
         <v>0.8</v>
@@ -2037,28 +2097,22 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>80086.60535258734</v>
-      </c>
-      <c r="W17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>47</v>
+        <v>1461217.052240197</v>
       </c>
       <c r="Z17" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="AA17">
-        <v>13793.92277320008</v>
+        <v>398784.7446345502</v>
       </c>
       <c r="AB17">
         <v>45</v>
       </c>
       <c r="AD17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2069,55 +2123,55 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H18">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I18">
         <v>2023</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>48267.395</v>
+        <v>382.1</v>
       </c>
       <c r="R18">
-        <v>53.1145</v>
+        <v>74.203</v>
       </c>
       <c r="S18">
-        <v>908742.3396624275</v>
+        <v>5149.38749107179</v>
       </c>
       <c r="T18">
         <v>0.8</v>
@@ -2126,31 +2180,31 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>726993.871729942</v>
+        <v>4119.509992857432</v>
       </c>
       <c r="W18" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="AA18">
-        <v>283096.2797751046</v>
+        <v>2541.820469216355</v>
       </c>
       <c r="AB18">
         <v>95</v>
       </c>
       <c r="AC18" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2158,58 +2212,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H19">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I19">
         <v>2023</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P19" t="b">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21053.6</v>
+        <v>878.0999999999999</v>
       </c>
       <c r="R19">
-        <v>53.1145</v>
+        <v>75.343</v>
       </c>
       <c r="S19">
-        <v>396381.4024418945</v>
+        <v>11654.69917576948</v>
       </c>
       <c r="T19">
         <v>0.8</v>
@@ -2218,31 +2272,28 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>317105.1219535156</v>
+        <v>9323.759340615585</v>
       </c>
       <c r="W19" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y19" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="AA19">
-        <v>123482.8570274642</v>
+        <v>1026.239738612871</v>
       </c>
       <c r="AB19">
-        <v>95</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2253,55 +2304,55 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H20">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I20">
         <v>2023</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P20" t="b">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>344226.7</v>
+        <v>171445.51</v>
       </c>
       <c r="R20">
-        <v>94.95559999999999</v>
+        <v>93.86450000000001</v>
       </c>
       <c r="S20">
-        <v>3625133.220157632</v>
+        <v>1826521.315300246</v>
       </c>
       <c r="T20">
         <v>0.8</v>
@@ -2310,31 +2361,22 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>2900106.576126106</v>
-      </c>
-      <c r="W20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>47</v>
+        <v>1461217.052240197</v>
       </c>
       <c r="Z20" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="AA20">
-        <v>1129320.912566921</v>
+        <v>160832.0153884027</v>
       </c>
       <c r="AB20">
-        <v>95</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2345,55 +2387,55 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H21">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I21">
         <v>2023</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6686.299999999999</v>
+        <v>171445.51</v>
       </c>
       <c r="R21">
-        <v>53.1145</v>
+        <v>93.86450000000001</v>
       </c>
       <c r="S21">
-        <v>125884.6454358038</v>
+        <v>1826521.315300246</v>
       </c>
       <c r="T21">
         <v>0.8</v>
@@ -2402,31 +2444,25 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>100707.716348643</v>
-      </c>
-      <c r="W21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>47</v>
+        <v>1461217.052240197</v>
       </c>
       <c r="Z21" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="AA21">
-        <v>39216.25883187359</v>
+        <v>901600.292217244</v>
       </c>
       <c r="AB21">
         <v>95</v>
       </c>
       <c r="AC21" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="AE21" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2434,58 +2470,58 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H22">
-        <v>1008553</v>
+        <v>1001906</v>
       </c>
       <c r="I22">
         <v>2023</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>148574.1</v>
+        <v>382.1</v>
       </c>
       <c r="R22">
-        <v>94.95559999999999</v>
+        <v>74.203</v>
       </c>
       <c r="S22">
-        <v>1564669.171697088</v>
+        <v>5149.38749107179</v>
       </c>
       <c r="T22">
         <v>0.8</v>
@@ -2494,31 +2530,28 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>1251735.33735767</v>
+        <v>4119.509992857432</v>
       </c>
       <c r="W22" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y22" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="AA22">
-        <v>487434.1188403132</v>
+        <v>453.4227776415345</v>
       </c>
       <c r="AB22">
-        <v>95</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2526,58 +2559,58 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H23">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I23">
         <v>2023</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>148574.1</v>
+        <v>94452.2</v>
       </c>
       <c r="R23">
-        <v>94.95559999999999</v>
+        <v>53.1145</v>
       </c>
       <c r="S23">
-        <v>1564669.171697088</v>
+        <v>1778275.235575973</v>
       </c>
       <c r="T23">
         <v>0.8</v>
@@ -2586,28 +2619,28 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>1251735.33735767</v>
+        <v>1422620.188460778</v>
       </c>
       <c r="W23" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y23" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z23" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AA23">
-        <v>220622.8951337578</v>
+        <v>388251.1689126047</v>
       </c>
       <c r="AB23">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2615,58 +2648,58 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H24">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I24">
         <v>2023</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97724.045</v>
+        <v>29263.975</v>
       </c>
       <c r="R24">
-        <v>93.86450000000001</v>
+        <v>53.1145</v>
       </c>
       <c r="S24">
-        <v>1041118.260897357</v>
+        <v>550960.1897786857</v>
       </c>
       <c r="T24">
         <v>0.8</v>
@@ -2675,31 +2708,22 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>832894.6087178858</v>
-      </c>
-      <c r="W24" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>47</v>
+        <v>440768.1518229486</v>
       </c>
       <c r="Z24" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="AA24">
-        <v>324334.735603334</v>
+        <v>120291.2425626851</v>
       </c>
       <c r="AB24">
-        <v>95</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2710,55 +2734,55 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H25">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I25">
         <v>2023</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6686.299999999999</v>
+        <v>66175.405</v>
       </c>
       <c r="R25">
-        <v>53.1145</v>
+        <v>93.86450000000001</v>
       </c>
       <c r="S25">
-        <v>125884.6454358038</v>
+        <v>705009.93453329</v>
       </c>
       <c r="T25">
         <v>0.8</v>
@@ -2767,28 +2791,22 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>100707.716348643</v>
-      </c>
-      <c r="W25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>47</v>
+        <v>564007.9476266321</v>
       </c>
       <c r="Z25" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AA25">
-        <v>17750.10042462212</v>
+        <v>153924.9525053934</v>
       </c>
       <c r="AB25">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -2799,55 +2817,55 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H26">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I26">
         <v>2023</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21053.6</v>
+        <v>179834.8</v>
       </c>
       <c r="R26">
-        <v>53.1145</v>
+        <v>94.95559999999999</v>
       </c>
       <c r="S26">
-        <v>396381.4024418945</v>
+        <v>1893883.035860971</v>
       </c>
       <c r="T26">
         <v>0.8</v>
@@ -2856,28 +2874,28 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>317105.1219535156</v>
+        <v>1515106.428688777</v>
       </c>
       <c r="W26" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y26" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z26" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AA26">
-        <v>55890.92836095065</v>
+        <v>413491.8418400032</v>
       </c>
       <c r="AB26">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -2885,58 +2903,58 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H27">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I27">
         <v>2023</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P27" t="b">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48267.395</v>
+        <v>94452.2</v>
       </c>
       <c r="R27">
         <v>53.1145</v>
       </c>
       <c r="S27">
-        <v>908742.3396624275</v>
+        <v>1778275.235575973</v>
       </c>
       <c r="T27">
         <v>0.8</v>
@@ -2945,28 +2963,31 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>726993.871729942</v>
+        <v>1422620.188460778</v>
       </c>
       <c r="W27" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y27" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z27" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="AA27">
-        <v>92401.79942132479</v>
+        <v>877785.2514545848</v>
       </c>
       <c r="AB27">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>75</v>
       </c>
       <c r="AD27" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE27" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -2977,55 +2998,55 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H28">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I28">
         <v>2023</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21053.6</v>
+        <v>94452.2</v>
       </c>
       <c r="R28">
         <v>53.1145</v>
       </c>
       <c r="S28">
-        <v>396381.4024418945</v>
+        <v>1778275.235575973</v>
       </c>
       <c r="T28">
         <v>0.8</v>
@@ -3034,28 +3055,28 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>317105.1219535156</v>
+        <v>1422620.188460778</v>
       </c>
       <c r="W28" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y28" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z28" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AA28">
-        <v>40304.44411381231</v>
+        <v>156583.7680935887</v>
       </c>
       <c r="AB28">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AD28" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3066,55 +3087,55 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H29">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I29">
         <v>2023</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>344226.7</v>
+        <v>29263.975</v>
       </c>
       <c r="R29">
-        <v>94.95559999999999</v>
+        <v>53.1145</v>
       </c>
       <c r="S29">
-        <v>3625133.220157632</v>
+        <v>550960.1897786857</v>
       </c>
       <c r="T29">
         <v>0.8</v>
@@ -3123,28 +3144,22 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>2900106.576126106</v>
-      </c>
-      <c r="W29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>47</v>
+        <v>440768.1518229486</v>
       </c>
       <c r="Z29" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AA29">
-        <v>368607.0496165265</v>
+        <v>48514.09998810591</v>
       </c>
       <c r="AB29">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3155,55 +3170,55 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H30">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I30">
         <v>2023</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6686.299999999999</v>
+        <v>66175.405</v>
       </c>
       <c r="R30">
-        <v>53.1145</v>
+        <v>93.86450000000001</v>
       </c>
       <c r="S30">
-        <v>125884.6454358038</v>
+        <v>705009.93453329</v>
       </c>
       <c r="T30">
         <v>0.8</v>
@@ -3212,28 +3227,22 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>100707.716348643</v>
-      </c>
-      <c r="W30" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>47</v>
+        <v>564007.9476266321</v>
       </c>
       <c r="Z30" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AA30">
-        <v>12800.07241888243</v>
+        <v>62078.75467426232</v>
       </c>
       <c r="AB30">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3241,58 +3250,58 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H31">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I31">
         <v>2023</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>148574.1</v>
+        <v>179834.8</v>
       </c>
       <c r="R31">
         <v>94.95559999999999</v>
       </c>
       <c r="S31">
-        <v>1564669.171697088</v>
+        <v>1893883.035860971</v>
       </c>
       <c r="T31">
         <v>0.8</v>
@@ -3301,28 +3310,28 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>1251735.33735767</v>
+        <v>1515106.428688777</v>
       </c>
       <c r="W31" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y31" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z31" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AA31">
-        <v>159097.0736739211</v>
+        <v>166763.4661670272</v>
       </c>
       <c r="AB31">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3330,58 +3339,58 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H32">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I32">
         <v>2023</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>97724.045</v>
+        <v>29263.975</v>
       </c>
       <c r="R32">
-        <v>93.86450000000001</v>
+        <v>53.1145</v>
       </c>
       <c r="S32">
-        <v>1041118.260897357</v>
+        <v>550960.1897786857</v>
       </c>
       <c r="T32">
         <v>0.8</v>
@@ -3390,28 +3399,25 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>832894.6087178858</v>
-      </c>
-      <c r="W32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>47</v>
+        <v>440768.1518229486</v>
       </c>
       <c r="Z32" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="AA32">
-        <v>105861.9110374588</v>
+        <v>271962.8092721576</v>
       </c>
       <c r="AB32">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>75</v>
       </c>
       <c r="AD32" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE32" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3422,55 +3428,55 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H33">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I33">
         <v>2023</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>5317.2</v>
+        <v>66175.405</v>
       </c>
       <c r="R33">
-        <v>53.1145</v>
+        <v>93.86450000000001</v>
       </c>
       <c r="S33">
-        <v>100108.2566907342</v>
+        <v>705009.93453329</v>
       </c>
       <c r="T33">
         <v>0.8</v>
@@ -3479,28 +3485,25 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>80086.60535258734</v>
-      </c>
-      <c r="W33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>47</v>
+        <v>564007.9476266321</v>
       </c>
       <c r="Z33" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="AA33">
-        <v>10179.10429769554</v>
+        <v>348004.2404469763</v>
       </c>
       <c r="AB33">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>75</v>
       </c>
       <c r="AD33" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE33" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3508,58 +3511,58 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H34">
-        <v>1008553</v>
+        <v>1003943</v>
       </c>
       <c r="I34">
         <v>2023</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48267.395</v>
+        <v>179834.8</v>
       </c>
       <c r="R34">
-        <v>53.1145</v>
+        <v>94.95559999999999</v>
       </c>
       <c r="S34">
-        <v>908742.3396624275</v>
+        <v>1893883.035860971</v>
       </c>
       <c r="T34">
         <v>0.8</v>
@@ -3568,28 +3571,31 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>726993.871729942</v>
+        <v>1515106.428688777</v>
       </c>
       <c r="W34" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y34" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AA34">
-        <v>47644.67782662059</v>
+        <v>934851.1206817465</v>
       </c>
       <c r="AB34">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>75</v>
       </c>
       <c r="AD34" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE34" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -3600,55 +3606,55 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H35">
-        <v>1008553</v>
+        <v>1005422</v>
       </c>
       <c r="I35">
         <v>2023</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21053.6</v>
+        <v>13624.1</v>
       </c>
       <c r="R35">
         <v>53.1145</v>
       </c>
       <c r="S35">
-        <v>396381.4024418945</v>
+        <v>256504.3443880673</v>
       </c>
       <c r="T35">
         <v>0.8</v>
@@ -3657,28 +3663,31 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <v>317105.1219535156</v>
+        <v>205203.4755104538</v>
       </c>
       <c r="W35" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y35" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z35" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AA35">
-        <v>20781.97899618447</v>
+        <v>126614.669053155</v>
       </c>
       <c r="AB35">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>75</v>
       </c>
       <c r="AD35" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE35" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -3686,58 +3695,58 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H36">
-        <v>1008553</v>
+        <v>1005422</v>
       </c>
       <c r="I36">
         <v>2023</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>344226.7</v>
+        <v>13624.1</v>
       </c>
       <c r="R36">
-        <v>94.95559999999999</v>
+        <v>53.1145</v>
       </c>
       <c r="S36">
-        <v>3625133.220157632</v>
+        <v>256504.3443880673</v>
       </c>
       <c r="T36">
         <v>0.8</v>
@@ -3746,28 +3755,28 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>2900106.576126106</v>
+        <v>205203.4755104538</v>
       </c>
       <c r="W36" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y36" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z36" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="AA36">
-        <v>190063.0099585215</v>
+        <v>22586.16437609565</v>
       </c>
       <c r="AB36">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -3775,58 +3784,58 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H37">
-        <v>1008553</v>
+        <v>1005422</v>
       </c>
       <c r="I37">
         <v>2023</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6686.299999999999</v>
+        <v>13624.1</v>
       </c>
       <c r="R37">
         <v>53.1145</v>
       </c>
       <c r="S37">
-        <v>125884.6454358038</v>
+        <v>256504.3443880673</v>
       </c>
       <c r="T37">
         <v>0.8</v>
@@ -3835,28 +3844,28 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>100707.716348643</v>
+        <v>205203.4755104538</v>
       </c>
       <c r="W37" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y37" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z37" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="AA37">
-        <v>6600.037340986253</v>
+        <v>56002.64208120317</v>
       </c>
       <c r="AB37">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -3864,58 +3873,58 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H38">
-        <v>1008553</v>
+        <v>1006080</v>
       </c>
       <c r="I38">
         <v>2023</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>148574.1</v>
+        <v>18123.3</v>
       </c>
       <c r="R38">
-        <v>94.95559999999999</v>
+        <v>53.1145</v>
       </c>
       <c r="S38">
-        <v>1564669.171697088</v>
+        <v>341211.9101187058</v>
       </c>
       <c r="T38">
         <v>0.8</v>
@@ -3924,28 +3933,28 @@
         <v>0</v>
       </c>
       <c r="V38">
-        <v>1251735.33735767</v>
+        <v>272969.5280949647</v>
       </c>
       <c r="W38" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y38" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z38" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="AA38">
-        <v>82034.4286131156</v>
+        <v>74496.86094716491</v>
       </c>
       <c r="AB38">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -3953,58 +3962,58 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H39">
-        <v>1008553</v>
+        <v>1006080</v>
       </c>
       <c r="I39">
         <v>2023</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L39" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>97724.045</v>
+        <v>18123.3</v>
       </c>
       <c r="R39">
-        <v>93.86450000000001</v>
+        <v>53.1145</v>
       </c>
       <c r="S39">
-        <v>1041118.260897357</v>
+        <v>341211.9101187058</v>
       </c>
       <c r="T39">
         <v>0.8</v>
@@ -4013,28 +4022,31 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>832894.6087178858</v>
+        <v>272969.5280949647</v>
       </c>
       <c r="W39" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y39" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z39" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AA39">
-        <v>54585.04787868971</v>
+        <v>168427.6856196772</v>
       </c>
       <c r="AB39">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>75</v>
       </c>
       <c r="AD39" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE39" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4042,58 +4054,58 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H40">
-        <v>1008553</v>
+        <v>1006080</v>
       </c>
       <c r="I40">
         <v>2023</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>5317.2</v>
+        <v>18123.3</v>
       </c>
       <c r="R40">
         <v>53.1145</v>
       </c>
       <c r="S40">
-        <v>100108.2566907342</v>
+        <v>341211.9101187058</v>
       </c>
       <c r="T40">
         <v>0.8</v>
@@ -4102,28 +4114,28 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>80086.60535258734</v>
+        <v>272969.5280949647</v>
       </c>
       <c r="W40" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y40" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z40" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="AA40">
-        <v>5248.600653499262</v>
+        <v>30044.98152812254</v>
       </c>
       <c r="AB40">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4131,58 +4143,58 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H41">
-        <v>1008553</v>
+        <v>1006080</v>
       </c>
       <c r="I41">
         <v>2023</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>48267.395</v>
+        <v>16.3</v>
       </c>
       <c r="R41">
         <v>53.1145</v>
       </c>
       <c r="S41">
-        <v>908742.3396624275</v>
+        <v>306.884184168165</v>
       </c>
       <c r="T41">
         <v>0.8</v>
@@ -4191,28 +4203,31 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>726993.871729942</v>
+        <v>245.507347334532</v>
       </c>
       <c r="W41" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y41" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z41" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="AA41">
-        <v>128135.3077912902</v>
+        <v>151.482968090841</v>
       </c>
       <c r="AB41">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>75</v>
       </c>
       <c r="AD41" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AE41" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4220,58 +4235,58 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H42">
-        <v>1008553</v>
+        <v>1006080</v>
       </c>
       <c r="I42">
         <v>2023</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K42" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>344226.7</v>
+        <v>16.3</v>
       </c>
       <c r="R42">
-        <v>94.95559999999999</v>
+        <v>53.1145</v>
       </c>
       <c r="S42">
-        <v>3625133.220157632</v>
+        <v>306.884184168165</v>
       </c>
       <c r="T42">
         <v>0.8</v>
@@ -4280,28 +4295,28 @@
         <v>0</v>
       </c>
       <c r="V42">
-        <v>2900106.576126106</v>
+        <v>245.507347334532</v>
       </c>
       <c r="W42" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="Y42" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="Z42" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="AA42">
-        <v>511154.3070854176</v>
+        <v>27.02229720351136</v>
       </c>
       <c r="AB42">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4309,58 +4324,58 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>322130</v>
+        <v>322110</v>
       </c>
       <c r="H43">
-        <v>1008553</v>
+        <v>1006080</v>
       </c>
       <c r="I43">
         <v>2023</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L43" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>5317.2</v>
+        <v>16.3</v>
       </c>
       <c r="R43">
         <v>53.1145</v>
       </c>
       <c r="S43">
-        <v>100108.2566907342</v>
+        <v>306.884184168165</v>
       </c>
       <c r="T43">
         <v>0.8</v>
@@ -4369,31 +4384,1108 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>80086.60535258734</v>
+        <v>245.507347334532</v>
       </c>
       <c r="W43" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA43">
+        <v>67.00208204017966</v>
+      </c>
+      <c r="AB43">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
         <v>46</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>322110</v>
+      </c>
+      <c r="H44">
+        <v>1006466</v>
+      </c>
+      <c r="I44">
+        <v>2023</v>
+      </c>
+      <c r="J44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" t="s">
+        <v>68</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>469.6</v>
+      </c>
+      <c r="R44">
+        <v>53.1145</v>
+      </c>
+      <c r="S44">
+        <v>8841.276864133146</v>
+      </c>
+      <c r="T44">
+        <v>0.8</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>7073.021491306517</v>
+      </c>
+      <c r="W44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA44">
+        <v>4364.196430396253</v>
+      </c>
+      <c r="AB44">
+        <v>95</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>322110</v>
+      </c>
+      <c r="H45">
+        <v>1006466</v>
+      </c>
+      <c r="I45">
+        <v>2023</v>
+      </c>
+      <c r="J45" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" t="s">
+        <v>68</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>30364.2</v>
+      </c>
+      <c r="R45">
+        <v>53.1145</v>
+      </c>
+      <c r="S45">
+        <v>571674.4015287728</v>
+      </c>
+      <c r="T45">
+        <v>0.8</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>457339.5212230182</v>
+      </c>
+      <c r="W45" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA45">
+        <v>124813.7803364677</v>
+      </c>
+      <c r="AB45">
+        <v>45</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>322110</v>
+      </c>
+      <c r="H46">
+        <v>1006466</v>
+      </c>
+      <c r="I46">
+        <v>2023</v>
+      </c>
+      <c r="J46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>30364.2</v>
+      </c>
+      <c r="R46">
+        <v>53.1145</v>
+      </c>
+      <c r="S46">
+        <v>571674.4015287728</v>
+      </c>
+      <c r="T46">
+        <v>0.8</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>457339.5212230182</v>
+      </c>
+      <c r="W46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA46">
+        <v>282187.6772824487</v>
+      </c>
+      <c r="AB46">
+        <v>95</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>322110</v>
+      </c>
+      <c r="H47">
+        <v>1006466</v>
+      </c>
+      <c r="I47">
+        <v>2023</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" t="s">
+        <v>68</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>469.6</v>
+      </c>
+      <c r="R47">
+        <v>53.1145</v>
+      </c>
+      <c r="S47">
+        <v>8841.276864133146</v>
+      </c>
+      <c r="T47">
+        <v>0.8</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>7073.021491306517</v>
+      </c>
+      <c r="W47" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA47">
+        <v>1930.317651906035</v>
+      </c>
+      <c r="AB47">
+        <v>45</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>322110</v>
+      </c>
+      <c r="H48">
+        <v>1006466</v>
+      </c>
+      <c r="I48">
+        <v>2023</v>
+      </c>
+      <c r="J48" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" t="s">
+        <v>68</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>30364.2</v>
+      </c>
+      <c r="R48">
+        <v>53.1145</v>
+      </c>
+      <c r="S48">
+        <v>571674.4015287728</v>
+      </c>
+      <c r="T48">
+        <v>0.8</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>457339.5212230182</v>
+      </c>
+      <c r="W48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA48">
+        <v>50338.06360410182</v>
+      </c>
+      <c r="AB48">
+        <v>45</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>322110</v>
+      </c>
+      <c r="H49">
+        <v>1006466</v>
+      </c>
+      <c r="I49">
+        <v>2023</v>
+      </c>
+      <c r="J49" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>469.6</v>
+      </c>
+      <c r="R49">
+        <v>53.1145</v>
+      </c>
+      <c r="S49">
+        <v>8841.276864133146</v>
+      </c>
+      <c r="T49">
+        <v>0.8</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>7073.021491306517</v>
+      </c>
+      <c r="W49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA49">
+        <v>778.5074090042291</v>
+      </c>
+      <c r="AB49">
+        <v>45</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>322110</v>
+      </c>
+      <c r="H50">
+        <v>1007214</v>
+      </c>
+      <c r="I50">
+        <v>2023</v>
+      </c>
+      <c r="J50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" t="s">
+        <v>68</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>97335.92966887279</v>
+      </c>
+      <c r="R50">
+        <v>53.1145</v>
+      </c>
+      <c r="S50">
+        <v>1832567.936606252</v>
+      </c>
+      <c r="T50">
+        <v>0.8</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>1466054.349285002</v>
+      </c>
+      <c r="W50" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA50">
+        <v>161364.4429504515</v>
+      </c>
+      <c r="AB50">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>322110</v>
+      </c>
+      <c r="H51">
+        <v>1007214</v>
+      </c>
+      <c r="I51">
+        <v>2023</v>
+      </c>
+      <c r="J51" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" t="s">
+        <v>68</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>97335.92966887279</v>
+      </c>
+      <c r="R51">
+        <v>53.1145</v>
+      </c>
+      <c r="S51">
+        <v>1832567.936606252</v>
+      </c>
+      <c r="T51">
+        <v>0.8</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>1466054.349285002</v>
+      </c>
+      <c r="W51" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA51">
+        <v>904585.0017252882</v>
+      </c>
+      <c r="AB51">
+        <v>95</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>322110</v>
+      </c>
+      <c r="H52">
+        <v>1007214</v>
+      </c>
+      <c r="I52">
+        <v>2023</v>
+      </c>
+      <c r="J52" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" t="s">
+        <v>68</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>69</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>97335.92966887279</v>
+      </c>
+      <c r="R52">
+        <v>53.1145</v>
+      </c>
+      <c r="S52">
+        <v>1832567.936606252</v>
+      </c>
+      <c r="T52">
+        <v>0.8</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>1466054.349285002</v>
+      </c>
+      <c r="W52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA52">
+        <v>400104.9046092621</v>
+      </c>
+      <c r="AB52">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="AA43">
-        <v>31186.26018288714</v>
-      </c>
-      <c r="AB43">
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>322110</v>
+      </c>
+      <c r="H53">
+        <v>1007603</v>
+      </c>
+      <c r="I53">
+        <v>2023</v>
+      </c>
+      <c r="J53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>15751.6</v>
+      </c>
+      <c r="R53">
+        <v>53.1145</v>
+      </c>
+      <c r="S53">
+        <v>296559.3199597097</v>
+      </c>
+      <c r="T53">
+        <v>0.8</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>237247.4559677678</v>
+      </c>
+      <c r="W53" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA53">
+        <v>26113.15439452942</v>
+      </c>
+      <c r="AB53">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>322110</v>
+      </c>
+      <c r="H54">
+        <v>1007603</v>
+      </c>
+      <c r="I54">
+        <v>2023</v>
+      </c>
+      <c r="J54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" t="s">
+        <v>68</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>15751.6</v>
+      </c>
+      <c r="R54">
+        <v>53.1145</v>
+      </c>
+      <c r="S54">
+        <v>296559.3199597097</v>
+      </c>
+      <c r="T54">
+        <v>0.8</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>237247.4559677678</v>
+      </c>
+      <c r="W54" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA54">
+        <v>64747.85248245976</v>
+      </c>
+      <c r="AB54">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>322110</v>
+      </c>
+      <c r="H55">
+        <v>1007603</v>
+      </c>
+      <c r="I55">
+        <v>2023</v>
+      </c>
+      <c r="J55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>69</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>15751.6</v>
+      </c>
+      <c r="R55">
+        <v>53.1145</v>
+      </c>
+      <c r="S55">
+        <v>296559.3199597097</v>
+      </c>
+      <c r="T55">
+        <v>0.8</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>237247.4559677678</v>
+      </c>
+      <c r="W55" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA55">
+        <v>146386.4490907786</v>
+      </c>
+      <c r="AB55">
         <v>95</v>
       </c>
-      <c r="AC43" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>47</v>
+      <c r="AC55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
